--- a/Resource/excel/P-配置列表-(后端维护).xlsx
+++ b/Resource/excel/P-配置列表-(后端维护).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>#config</t>
   </si>
@@ -189,9 +189,35 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.xml</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量配置表</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>constant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>./config/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>constant.xml</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -693,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,16 +822,16 @@
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -827,11 +853,11 @@
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>47</v>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -854,10 +880,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -874,28 +900,28 @@
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -906,36 +932,36 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -952,22 +978,22 @@
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -978,16 +1004,16 @@
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1004,16 +1030,16 @@
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1030,16 +1056,16 @@
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1056,27 +1082,53 @@
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>0</v>
       </c>
     </row>
